--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001247.733684456</v>
+        <v>3004798.29347185</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256421</v>
+        <v>6239134.53325642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069172</v>
+        <v>840694.9721069176</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>10.9265471783501</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>195.7571515107713</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>13.53224518932232</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>154.8473133620217</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>27.794498088131</v>
+        <v>16.10100981213248</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040334</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>104.8272251770963</v>
       </c>
       <c r="I13" t="n">
         <v>97.68290229956054</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>39.16627951868566</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
         <v>411.0203559212046</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040295</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>130.8441935329382</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>119.7401400319059</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.7401400319059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>56.14966791183068</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
@@ -2101,7 +2101,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.46978271449999</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>28.95581582039469</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>126.8979117369397</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0779722853728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T26" t="n">
         <v>204.3497241367009</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>190.3348605216788</v>
       </c>
       <c r="T28" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>259.52042879873</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28.81869974802325</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>159.6461437356202</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>11.19510224776195</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>96.56115211308411</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>128.3003586173564</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212045</v>
       </c>
       <c r="H38" t="n">
         <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>159.6461437356202</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.57137291818073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>130.4482050673222</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.4482050673225</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.7379838856521</v>
@@ -3997,7 +3997,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040303</v>
+        <v>45.37937317040306</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855865</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030164</v>
+        <v>10.50839692030165</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.15594943584736</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1005.372199209267</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C2" t="n">
-        <v>636.4096822688557</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D2" t="n">
-        <v>636.4096822688557</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E2" t="n">
-        <v>636.4096822688557</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1391.972039273389</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,7 +4409,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.885551920185</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>688.885551920185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>688.885551920185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>688.885551920185</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="V4" t="n">
-        <v>688.885551920185</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="W4" t="n">
-        <v>688.885551920185</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X4" t="n">
-        <v>688.885551920185</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.885551920185</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2683.480156483553</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2683.480156483553</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2683.480156483553</v>
       </c>
       <c r="U5" t="n">
-        <v>2309.53148622448</v>
+        <v>2683.480156483553</v>
       </c>
       <c r="V5" t="n">
-        <v>1978.468598880909</v>
+        <v>2683.480156483553</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.468598880909</v>
+        <v>2683.480156483553</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>2310.014398222474</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1919.875066246662</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.02060534945</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.058088409038</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>878.792389802288</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E8" t="n">
-        <v>493.0041372040437</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F8" t="n">
-        <v>82.01823241443617</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.620445413572</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5026,34 +5026,34 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F11" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036601</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155746</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924158</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K11" t="n">
-        <v>597.7080858612034</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L11" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M11" t="n">
-        <v>2408.222828443785</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N11" t="n">
-        <v>3370.552243872426</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O11" t="n">
         <v>4114.52506777933</v>
@@ -5120,25 +5120,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O12" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q12" t="n">
         <v>2587.498588679581</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>953.668986560201</v>
+        <v>767.2392694577319</v>
       </c>
       <c r="C13" t="n">
-        <v>953.668986560201</v>
+        <v>598.303086529825</v>
       </c>
       <c r="D13" t="n">
-        <v>803.5523471478652</v>
+        <v>448.1864471174893</v>
       </c>
       <c r="E13" t="n">
-        <v>655.6392535654721</v>
+        <v>300.2733535350961</v>
       </c>
       <c r="F13" t="n">
-        <v>508.7493060675617</v>
+        <v>300.2733535350961</v>
       </c>
       <c r="G13" t="n">
-        <v>341.001780409306</v>
+        <v>300.2733535350961</v>
       </c>
       <c r="H13" t="n">
         <v>194.3872674976251</v>
@@ -5205,10 +5205,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N13" t="n">
         <v>1318.687152545534</v>
@@ -5220,31 +5220,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q13" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="U13" t="n">
-        <v>1873.516751468949</v>
+        <v>1532.13350684411</v>
       </c>
       <c r="V13" t="n">
-        <v>1873.516751468949</v>
+        <v>1277.449018638223</v>
       </c>
       <c r="W13" t="n">
-        <v>1584.099581431988</v>
+        <v>988.031848601262</v>
       </c>
       <c r="X13" t="n">
-        <v>1356.110030533971</v>
+        <v>988.031848601262</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.317451390441</v>
+        <v>767.2392694577319</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K14" t="n">
-        <v>597.7080858612034</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L14" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M14" t="n">
-        <v>2408.222828443785</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N14" t="n">
-        <v>3251.01232707018</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O14" t="n">
         <v>4114.52506777933</v>
@@ -5357,25 +5357,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M15" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q15" t="n">
         <v>2587.498588679581</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.6673056111053</v>
+        <v>840.2752928333791</v>
       </c>
       <c r="C16" t="n">
-        <v>216.6673056111053</v>
+        <v>708.1094407799062</v>
       </c>
       <c r="D16" t="n">
-        <v>216.6673056111053</v>
+        <v>557.9928013675705</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G16" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H16" t="n">
         <v>95.71766921524075</v>
@@ -5442,10 +5442,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N16" t="n">
         <v>1318.687152545534</v>
@@ -5457,31 +5457,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q16" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S16" t="n">
-        <v>1720.61395783393</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.656398353473</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.5510938955</v>
+        <v>1532.13350684411</v>
       </c>
       <c r="V16" t="n">
-        <v>954.8666056896133</v>
+        <v>1532.13350684411</v>
       </c>
       <c r="W16" t="n">
-        <v>665.4494356526527</v>
+        <v>1242.716336807149</v>
       </c>
       <c r="X16" t="n">
-        <v>437.4598847546354</v>
+        <v>1242.716336807149</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.6673056111053</v>
+        <v>1021.923757663619</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612034</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M17" t="n">
-        <v>2408.222828443785</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N17" t="n">
-        <v>3370.552243872426</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O17" t="n">
         <v>4114.52506777933</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.525948037005</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.6673056111053</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6673056111053</v>
+        <v>449.4410924000633</v>
       </c>
       <c r="D19" t="n">
-        <v>95.71766921524075</v>
+        <v>299.3244529877276</v>
       </c>
       <c r="E19" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F19" t="n">
         <v>95.71766921524075</v>
@@ -5679,10 +5679,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N19" t="n">
         <v>1318.687152545534</v>
@@ -5694,31 +5694,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.656398353473</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.5510938955</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V19" t="n">
-        <v>954.8666056896133</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W19" t="n">
-        <v>665.4494356526527</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X19" t="n">
-        <v>437.4598847546354</v>
+        <v>851.8821363738332</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.6673056111053</v>
+        <v>631.0895572303031</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D20" t="n">
         <v>1652.105554591511</v>
@@ -5740,31 +5740,31 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K20" t="n">
-        <v>597.7080858612034</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443785</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872426</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O20" t="n">
         <v>4114.52506777933</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V20" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M21" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q21" t="n">
         <v>2587.498588679581</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>738.5463968580368</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="C22" t="n">
-        <v>569.6102139301299</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="D22" t="n">
-        <v>419.4935745177942</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E22" t="n">
-        <v>271.5804809354011</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F22" t="n">
-        <v>271.5804809354011</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
         <v>95.71766921524075</v>
@@ -5916,10 +5916,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N22" t="n">
         <v>1318.687152545534</v>
@@ -5931,31 +5931,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1913.078649972672</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T22" t="n">
-        <v>1913.078649972672</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U22" t="n">
-        <v>1913.078649972672</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V22" t="n">
-        <v>1658.394161766785</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W22" t="n">
-        <v>1368.976991729824</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X22" t="n">
-        <v>1140.987440831807</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y22" t="n">
-        <v>920.1948616882765</v>
+        <v>437.4598847546351</v>
       </c>
     </row>
     <row r="23">
@@ -5989,22 +5989,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612034</v>
+        <v>855.1603485090766</v>
       </c>
       <c r="L23" t="n">
-        <v>1033.333349091251</v>
+        <v>1704.27021414407</v>
       </c>
       <c r="M23" t="n">
-        <v>1970.102190551771</v>
+        <v>2665.675091091658</v>
       </c>
       <c r="N23" t="n">
-        <v>2932.431605980412</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O23" t="n">
-        <v>3795.944346689562</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
         <v>4495.258109903959</v>
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M24" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.6538521431477</v>
+        <v>934.9587478874822</v>
       </c>
       <c r="C25" t="n">
-        <v>95.71766921524075</v>
+        <v>934.9587478874822</v>
       </c>
       <c r="D25" t="n">
-        <v>95.71766921524075</v>
+        <v>784.8421084751465</v>
       </c>
       <c r="E25" t="n">
-        <v>95.71766921524075</v>
+        <v>636.9290148927533</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H25" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6153,10 +6153,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N25" t="n">
         <v>1318.687152545534</v>
@@ -6168,31 +6168,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972672</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.61395783393</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.656398353473</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.5510938955</v>
+        <v>1599.281251821626</v>
       </c>
       <c r="V25" t="n">
-        <v>954.8666056896133</v>
+        <v>1344.596763615739</v>
       </c>
       <c r="W25" t="n">
-        <v>665.4494356526527</v>
+        <v>1344.596763615739</v>
       </c>
       <c r="X25" t="n">
-        <v>437.4598847546354</v>
+        <v>1116.607212717722</v>
       </c>
       <c r="Y25" t="n">
-        <v>264.6538521431477</v>
+        <v>1116.607212717722</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C26" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D26" t="n">
         <v>1652.105554591511</v>
@@ -6214,40 +6214,40 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>1086.01769332701</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.642956557057</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M26" t="n">
-        <v>2038.029435346741</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N26" t="n">
-        <v>2657.180509552854</v>
+        <v>3309.42378543053</v>
       </c>
       <c r="O26" t="n">
-        <v>3520.693250262004</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6259,19 +6259,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U26" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V26" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W26" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X26" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y26" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>243.6307627976338</v>
+        <v>579.0158907130842</v>
       </c>
       <c r="C28" t="n">
-        <v>243.6307627976338</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D28" t="n">
-        <v>243.6307627976338</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6390,10 +6390,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N28" t="n">
         <v>1318.687152545534</v>
@@ -6405,31 +6405,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q28" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1720.61395783393</v>
+        <v>1720.821215102289</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.656398353473</v>
+        <v>1498.863655621832</v>
       </c>
       <c r="U28" t="n">
-        <v>1236.514551082029</v>
+        <v>1498.863655621832</v>
       </c>
       <c r="V28" t="n">
-        <v>981.8300628761419</v>
+        <v>1498.863655621832</v>
       </c>
       <c r="W28" t="n">
-        <v>692.4128928391813</v>
+        <v>1209.446485584871</v>
       </c>
       <c r="X28" t="n">
-        <v>464.4233419411639</v>
+        <v>981.4569346868541</v>
       </c>
       <c r="Y28" t="n">
-        <v>243.6307627976338</v>
+        <v>760.6643555433239</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K29" t="n">
-        <v>597.7080858612034</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496196</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443785</v>
+        <v>2729.126786889237</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872426</v>
+        <v>3309.42378543053</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P29" t="n">
         <v>4495.258109903959</v>
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C31" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D31" t="n">
-        <v>95.71766921524075</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E31" t="n">
         <v>95.71766921524075</v>
@@ -6627,10 +6627,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N31" t="n">
         <v>1318.687152545534</v>
@@ -6642,31 +6642,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q31" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.774119163342</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.816559682885</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U31" t="n">
-        <v>1117.711255224912</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V31" t="n">
-        <v>863.0267670190248</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W31" t="n">
-        <v>573.6095969820642</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X31" t="n">
-        <v>345.6200460840469</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y31" t="n">
-        <v>124.8274669405168</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
         <v>141.5554198924156</v>
@@ -6700,28 +6700,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K32" t="n">
-        <v>765.1137348815564</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.738998111603</v>
+        <v>1033.33334909125</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.125476901288</v>
+        <v>1970.102190551771</v>
       </c>
       <c r="N32" t="n">
-        <v>2679.454892329928</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O32" t="n">
-        <v>3542.967633039078</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P32" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O33" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>839.1103124964528</v>
+        <v>256.9764002613217</v>
       </c>
       <c r="C34" t="n">
-        <v>670.1741295685459</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>520.0574901562102</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6864,10 +6864,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N34" t="n">
         <v>1318.687152545534</v>
@@ -6879,31 +6879,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1821.238811302083</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T34" t="n">
-        <v>1599.281251821626</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="U34" t="n">
-        <v>1310.175947363653</v>
+        <v>1431.508653375957</v>
       </c>
       <c r="V34" t="n">
-        <v>1310.175947363653</v>
+        <v>1176.82416517007</v>
       </c>
       <c r="W34" t="n">
-        <v>1020.758777326693</v>
+        <v>887.4069951331089</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.758777326693</v>
+        <v>659.4174442350916</v>
       </c>
       <c r="Y34" t="n">
-        <v>1020.758777326693</v>
+        <v>438.6248650915614</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K35" t="n">
-        <v>765.1137348815564</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L35" t="n">
-        <v>1200.738998111603</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M35" t="n">
-        <v>2162.143875059191</v>
+        <v>2665.675091091658</v>
       </c>
       <c r="N35" t="n">
-        <v>3124.473290487832</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O35" t="n">
-        <v>3610.993851746864</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P35" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q35" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,25 +7016,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.525948037005</v>
+        <v>2362.669871067691</v>
       </c>
       <c r="Q36" t="n">
         <v>2587.498588679581</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.5735326357868</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="C37" t="n">
         <v>540.6373497078799</v>
@@ -7101,10 +7101,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N37" t="n">
         <v>1318.687152545534</v>
@@ -7116,31 +7116,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.656398353473</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.5510938955</v>
+        <v>1623.973345514698</v>
       </c>
       <c r="V37" t="n">
-        <v>1112.014576609557</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W37" t="n">
-        <v>1112.014576609557</v>
+        <v>1079.871687271851</v>
       </c>
       <c r="X37" t="n">
-        <v>1112.014576609557</v>
+        <v>851.8821363738332</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.2219974660266</v>
+        <v>722.2858145381197</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935956</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K38" t="n">
-        <v>597.7080858612034</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L38" t="n">
-        <v>1033.333349091251</v>
+        <v>1033.33334909125</v>
       </c>
       <c r="M38" t="n">
         <v>1970.102190551771</v>
@@ -7253,25 +7253,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629225</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111792</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433806</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M39" t="n">
         <v>1277.536404075617</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890735</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439724</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7338,10 +7338,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N40" t="n">
         <v>1318.687152545534</v>
@@ -7353,28 +7353,28 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.774119163342</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682885</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.711255224912</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>863.0267670190248</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>573.6095969820642</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>345.6200460840469</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
         <v>277.3661340454805</v>
@@ -7399,40 +7399,40 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036601</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.01769332701</v>
+        <v>604.6058461270948</v>
       </c>
       <c r="L41" t="n">
-        <v>1611.438070502394</v>
+        <v>1453.715711762088</v>
       </c>
       <c r="M41" t="n">
-        <v>2127.824549292078</v>
+        <v>1970.102190551771</v>
       </c>
       <c r="N41" t="n">
-        <v>2657.180509552854</v>
+        <v>2932.431605980412</v>
       </c>
       <c r="O41" t="n">
-        <v>3520.693250262004</v>
+        <v>3795.944346689562</v>
       </c>
       <c r="P41" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O42" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.71766921524075</v>
+        <v>227.4835329196067</v>
       </c>
       <c r="C43" t="n">
         <v>95.71766921524075</v>
@@ -7575,10 +7575,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N43" t="n">
         <v>1318.687152545534</v>
@@ -7590,31 +7590,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1781.312786268305</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.355226787849</v>
+        <v>1691.121090492215</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.249922329876</v>
+        <v>1402.015786034242</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>1147.331297828355</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>857.9141277913939</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>629.9245768933765</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.3661340454805</v>
+        <v>409.1319977498464</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.01769332701</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L44" t="n">
-        <v>1611.438070502394</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M44" t="n">
-        <v>2127.824549292078</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552854</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629225</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111792</v>
+        <v>414.2869325418659</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433806</v>
+        <v>769.6414721740672</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075617</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890735</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.002693439724</v>
+        <v>2062.14661647041</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.525948037005</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.1963471975131</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C46" t="n">
-        <v>560.1963471975131</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
         <v>95.71766921524075</v>
@@ -7812,10 +7812,10 @@
         <v>336.642113073884</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150418</v>
+        <v>646.6900875150417</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239502</v>
+        <v>983.98132772395</v>
       </c>
       <c r="N46" t="n">
         <v>1318.687152545534</v>
@@ -7827,31 +7827,31 @@
         <v>1839.13598320328</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972672</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972672</v>
+        <v>1720.61395783393</v>
       </c>
       <c r="T46" t="n">
-        <v>1691.121090492215</v>
+        <v>1498.656398353473</v>
       </c>
       <c r="U46" t="n">
-        <v>1402.015786034242</v>
+        <v>1209.5510938955</v>
       </c>
       <c r="V46" t="n">
-        <v>1147.331297828355</v>
+        <v>954.866605689613</v>
       </c>
       <c r="W46" t="n">
-        <v>857.9141277913941</v>
+        <v>665.4494356526525</v>
       </c>
       <c r="X46" t="n">
-        <v>857.9141277913941</v>
+        <v>437.4598847546351</v>
       </c>
       <c r="Y46" t="n">
-        <v>637.121548647864</v>
+        <v>216.667305611105</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,10 +8701,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>373.2543023942267</v>
       </c>
       <c r="O11" t="n">
-        <v>260.0527905534063</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,10 +8938,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>316.5995337026457</v>
+        <v>373.2543023942267</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>74.60209794880245</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9175,10 +9175,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>373.2543023942267</v>
       </c>
       <c r="O17" t="n">
-        <v>260.0527905534063</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411126</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534063</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>74.60209794880245</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>424.6286491624612</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>74.60209794880245</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>90.70213529832017</v>
+        <v>51.45559422274357</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,13 +10123,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>51.45559422274357</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534063</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>424.6286491624619</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>299.2993316289835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>385.4209114750752</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>230.5859793988967</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>74.60209794880225</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>424.6286491624612</v>
+        <v>424.6286491624619</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880123</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>6.967434612011687</v>
       </c>
       <c r="L41" t="n">
-        <v>90.70213529832023</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>90.70213529832023</v>
+        <v>296.9138238411126</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880123</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>74.60209794880257</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990409</v>
+        <v>3.419393410990438</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32114260546774</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
@@ -23472,16 +23472,16 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>247.0479718947078</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>36.40262756568964</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.6938226146633</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>97.68290229956054</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.87533298630649</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>90.28429473473849</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1456903037124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.1142345812785</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
         <v>97.68290229956054</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S22" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>18.52313628599157</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388263</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.506681066722</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956054</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.2051846956753991</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>26.69382261466347</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.013280433914</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>26.69382261466353</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>7.600677363007662</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>135.2388603988072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>155.5764912107439</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>90.28429473473841</v>
       </c>
     </row>
     <row r="38">
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.0132804339141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>36.79861603130558</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>60.09184015003166</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.6760307460899</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>47.50668106672219</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
         <v>97.68290229956054</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388263</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752626.6249139246</v>
+        <v>752626.6249139247</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752626.6249139246</v>
+        <v>752626.6249139245</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>752626.6249139245</v>
+        <v>752626.6249139246</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>752626.6249139246</v>
+        <v>752626.6249139245</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752626.6249139246</v>
+        <v>752626.6249139245</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752626.6249139246</v>
+        <v>752626.6249139245</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>752626.6249139245</v>
+        <v>752626.6249139246</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>654240.3484050937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>654240.3484050935</v>
+      </c>
+      <c r="G2" t="n">
+        <v>654240.3484050935</v>
+      </c>
+      <c r="H2" t="n">
+        <v>654240.3484050937</v>
+      </c>
+      <c r="I2" t="n">
+        <v>654240.3484050938</v>
+      </c>
+      <c r="J2" t="n">
+        <v>654240.3484050933</v>
+      </c>
+      <c r="K2" t="n">
+        <v>654240.3484050935</v>
+      </c>
+      <c r="L2" t="n">
         <v>654240.3484050934</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>654240.3484050937</v>
-      </c>
-      <c r="G2" t="n">
-        <v>654240.3484050937</v>
-      </c>
-      <c r="H2" t="n">
-        <v>654240.3484050934</v>
-      </c>
-      <c r="I2" t="n">
-        <v>654240.3484050935</v>
-      </c>
-      <c r="J2" t="n">
-        <v>654240.3484050935</v>
-      </c>
-      <c r="K2" t="n">
-        <v>654240.3484050937</v>
-      </c>
-      <c r="L2" t="n">
-        <v>654240.3484050935</v>
-      </c>
-      <c r="M2" t="n">
-        <v>654240.3484050938</v>
       </c>
       <c r="N2" t="n">
         <v>654240.3484050935</v>
       </c>
       <c r="O2" t="n">
-        <v>654240.3484050937</v>
+        <v>654240.3484050935</v>
       </c>
       <c r="P2" t="n">
         <v>654240.3484050935</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518286</v>
+        <v>708251.0967518283</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659313</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="F4" t="n">
+        <v>19876.24241659315</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19876.24241659315</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19876.24241659315</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19876.24241659315</v>
+      </c>
+      <c r="J4" t="n">
         <v>19876.24241659314</v>
       </c>
-      <c r="G4" t="n">
-        <v>19876.24241659313</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19876.24241659313</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19876.24241659313</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19876.24241659313</v>
-      </c>
       <c r="K4" t="n">
-        <v>19876.24241659313</v>
+        <v>19876.24241659314</v>
       </c>
       <c r="L4" t="n">
         <v>19876.24241659314</v>
       </c>
       <c r="M4" t="n">
+        <v>19876.24241659315</v>
+      </c>
+      <c r="N4" t="n">
         <v>19876.24241659314</v>
       </c>
-      <c r="N4" t="n">
-        <v>19876.24241659313</v>
-      </c>
       <c r="O4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
       <c r="P4" t="n">
-        <v>19876.24241659314</v>
+        <v>19876.24241659315</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206921</v>
+        <v>95967.7133920692</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970486</v>
+        <v>-178816.1839970484</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.6952174958</v>
+        <v>411151.6952174962</v>
       </c>
       <c r="D6" t="n">
-        <v>411151.6952174961</v>
+        <v>411151.695217496</v>
       </c>
       <c r="E6" t="n">
-        <v>-170555.2832988199</v>
+        <v>-169924.7620697393</v>
       </c>
       <c r="F6" t="n">
-        <v>537695.8134530089</v>
+        <v>538326.3346820889</v>
       </c>
       <c r="G6" t="n">
-        <v>537695.8134530089</v>
+        <v>538326.3346820889</v>
       </c>
       <c r="H6" t="n">
-        <v>537695.8134530087</v>
+        <v>538326.334682089</v>
       </c>
       <c r="I6" t="n">
-        <v>537695.8134530088</v>
+        <v>538326.3346820892</v>
       </c>
       <c r="J6" t="n">
-        <v>361272.5942604158</v>
+        <v>361903.1154894958</v>
       </c>
       <c r="K6" t="n">
-        <v>537695.8134530089</v>
+        <v>538326.3346820889</v>
       </c>
       <c r="L6" t="n">
-        <v>537695.8134530088</v>
+        <v>538326.3346820888</v>
       </c>
       <c r="M6" t="n">
-        <v>407565.5734835996</v>
+        <v>408196.0947126796</v>
       </c>
       <c r="N6" t="n">
-        <v>537695.8134530088</v>
+        <v>538326.3346820889</v>
       </c>
       <c r="O6" t="n">
-        <v>537695.8134530089</v>
+        <v>538326.3346820889</v>
       </c>
       <c r="P6" t="n">
-        <v>537695.8134530088</v>
+        <v>538326.3346820889</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731075</v>
+        <v>687.4987572731072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>395.9494985633613</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>173.2945409866322</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>90.5247227312064</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.94615738548939</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>96.37685414626765</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>125.566801220841</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>385.989671932664</v>
+        <v>397.6831602086625</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H11" t="n">
         <v>43.85694049883998</v>
@@ -31761,25 +31761,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P11" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q11" t="n">
         <v>462.4490353515545</v>
@@ -31788,13 +31788,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T11" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U11" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H12" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R12" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U12" t="n">
         <v>0.150741852097669</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J13" t="n">
         <v>135.8096772447416</v>
@@ -31925,16 +31925,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M13" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O13" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279596</v>
@@ -31943,16 +31943,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H14" t="n">
         <v>43.85694049883998</v>
@@ -31998,25 +31998,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P14" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q14" t="n">
         <v>462.4490353515545</v>
@@ -32025,13 +32025,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T14" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U14" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H15" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R15" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U15" t="n">
         <v>0.150741852097669</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J16" t="n">
         <v>135.8096772447416</v>
@@ -32162,16 +32162,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M16" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N16" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O16" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279596</v>
@@ -32180,16 +32180,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H17" t="n">
         <v>43.85694049883998</v>
@@ -32235,25 +32235,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P17" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q17" t="n">
         <v>462.4490353515545</v>
@@ -32262,13 +32262,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T17" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U17" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H18" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R18" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U18" t="n">
         <v>0.150741852097669</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J19" t="n">
         <v>135.8096772447416</v>
@@ -32399,16 +32399,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M19" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N19" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O19" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279596</v>
@@ -32417,16 +32417,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H20" t="n">
         <v>43.85694049883998</v>
@@ -32472,25 +32472,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P20" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q20" t="n">
         <v>462.4490353515545</v>
@@ -32499,13 +32499,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T20" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U20" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H21" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R21" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U21" t="n">
         <v>0.150741852097669</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J22" t="n">
         <v>135.8096772447416</v>
@@ -32636,16 +32636,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M22" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N22" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O22" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279596</v>
@@ -32654,16 +32654,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H23" t="n">
         <v>43.85694049883998</v>
@@ -32709,25 +32709,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P23" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q23" t="n">
         <v>462.4490353515545</v>
@@ -32736,13 +32736,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U23" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H24" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R24" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U24" t="n">
         <v>0.150741852097669</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J25" t="n">
         <v>135.8096772447416</v>
@@ -32873,16 +32873,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M25" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O25" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279596</v>
@@ -32891,16 +32891,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H26" t="n">
         <v>43.85694049883998</v>
@@ -32946,25 +32946,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P26" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q26" t="n">
         <v>462.4490353515545</v>
@@ -32973,13 +32973,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U26" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H27" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R27" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U27" t="n">
         <v>0.150741852097669</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J28" t="n">
         <v>135.8096772447416</v>
@@ -33110,16 +33110,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M28" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O28" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279596</v>
@@ -33128,16 +33128,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H29" t="n">
         <v>43.85694049883998</v>
@@ -33183,25 +33183,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P29" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q29" t="n">
         <v>462.4490353515545</v>
@@ -33210,13 +33210,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U29" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H30" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R30" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U30" t="n">
         <v>0.150741852097669</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J31" t="n">
         <v>135.8096772447416</v>
@@ -33347,16 +33347,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M31" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O31" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279596</v>
@@ -33365,16 +33365,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H32" t="n">
         <v>43.85694049883998</v>
@@ -33420,25 +33420,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P32" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q32" t="n">
         <v>462.4490353515545</v>
@@ -33447,13 +33447,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U32" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H33" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R33" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U33" t="n">
         <v>0.150741852097669</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J34" t="n">
         <v>135.8096772447416</v>
@@ -33584,16 +33584,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M34" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O34" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279596</v>
@@ -33602,16 +33602,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H35" t="n">
         <v>43.85694049883998</v>
@@ -33657,25 +33657,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P35" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q35" t="n">
         <v>462.4490353515545</v>
@@ -33684,13 +33684,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U35" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H36" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R36" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U36" t="n">
         <v>0.150741852097669</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J37" t="n">
         <v>135.8096772447416</v>
@@ -33821,16 +33821,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M37" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O37" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279596</v>
@@ -33839,16 +33839,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H38" t="n">
         <v>43.85694049883998</v>
@@ -33894,25 +33894,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P38" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q38" t="n">
         <v>462.4490353515545</v>
@@ -33921,13 +33921,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U38" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H39" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R39" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U39" t="n">
         <v>0.150741852097669</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J40" t="n">
         <v>135.8096772447416</v>
@@ -34058,16 +34058,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M40" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O40" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279596</v>
@@ -34076,16 +34076,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H41" t="n">
         <v>43.85694049883998</v>
@@ -34131,25 +34131,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P41" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q41" t="n">
         <v>462.4490353515545</v>
@@ -34158,13 +34158,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U41" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H42" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R42" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U42" t="n">
         <v>0.150741852097669</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J43" t="n">
         <v>135.8096772447416</v>
@@ -34295,16 +34295,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M43" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O43" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279596</v>
@@ -34313,16 +34313,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930426</v>
+        <v>4.282381593930425</v>
       </c>
       <c r="H44" t="n">
         <v>43.85694049883998</v>
@@ -34368,25 +34368,25 @@
         <v>165.0965164000029</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078528</v>
+        <v>363.4617848078527</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789278</v>
+        <v>544.7349976789277</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841762</v>
+        <v>675.7919333841761</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552364</v>
+        <v>751.9487370552362</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589913</v>
+        <v>764.1160537589911</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843456</v>
+        <v>721.5331217843454</v>
       </c>
       <c r="P44" t="n">
-        <v>615.811826184188</v>
+        <v>615.8118261841879</v>
       </c>
       <c r="Q44" t="n">
         <v>462.4490353515545</v>
@@ -34395,13 +34395,13 @@
         <v>269.0031527997323</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168967</v>
+        <v>97.58477057168965</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743045</v>
+        <v>18.74612542743044</v>
       </c>
       <c r="U44" t="n">
-        <v>0.342590527514434</v>
+        <v>0.3425905275144339</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.291276151884569</v>
+        <v>2.291276151884568</v>
       </c>
       <c r="H45" t="n">
         <v>22.12890388793781</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111344</v>
+        <v>78.88823593111343</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690592</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453253</v>
+        <v>369.9908512453252</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063402</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121558</v>
+        <v>580.5571197121556</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693116</v>
+        <v>595.9227391693114</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828166</v>
+        <v>545.1528833828165</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418875</v>
+        <v>437.5332504418874</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967039</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R45" t="n">
         <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557518</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.23545080518385</v>
+        <v>9.235450805183849</v>
       </c>
       <c r="U45" t="n">
         <v>0.150741852097669</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785596</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487558</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769775</v>
+        <v>57.76757262769774</v>
       </c>
       <c r="J46" t="n">
         <v>135.8096772447416</v>
@@ -34532,16 +34532,16 @@
         <v>223.1770187974537</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024695</v>
+        <v>285.5897469024694</v>
       </c>
       <c r="M46" t="n">
         <v>301.1143454714002</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597451</v>
+        <v>293.954519359745</v>
       </c>
       <c r="O46" t="n">
-        <v>271.514576546386</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279596</v>
@@ -34550,16 +34550,16 @@
         <v>160.8516056450193</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328685</v>
+        <v>86.37195109328684</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961805</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629361</v>
+        <v>8.207605542629359</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1047779430973963</v>
+        <v>0.1047779430973962</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L11" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M11" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743845</v>
+        <v>907.957292556627</v>
       </c>
       <c r="O11" t="n">
-        <v>751.4877009160651</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P11" t="n">
-        <v>384.5788304289185</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q11" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275573</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389736</v>
@@ -35588,7 +35588,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L14" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M14" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N14" t="n">
-        <v>851.3025238650459</v>
+        <v>907.957292556627</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254042</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P14" t="n">
-        <v>384.5788304289185</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q14" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R14" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709663</v>
+        <v>306.7515102197686</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389736</v>
@@ -35825,7 +35825,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743845</v>
+        <v>907.957292556627</v>
       </c>
       <c r="O17" t="n">
-        <v>751.4877009160651</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289185</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q17" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.4976168106824</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389736</v>
@@ -36062,7 +36062,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K20" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646394</v>
+        <v>736.9393422553014</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O20" t="n">
-        <v>751.4877009160651</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289185</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q20" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R20" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709663</v>
+        <v>306.7515102197686</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389736</v>
@@ -36299,7 +36299,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339473</v>
+        <v>584.6979371873546</v>
       </c>
       <c r="L23" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M23" t="n">
-        <v>946.2311529904249</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O23" t="n">
-        <v>872.2350916254042</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q23" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709663</v>
+        <v>306.7515102197686</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389736</v>
@@ -36536,7 +36536,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
-        <v>648.790559205112</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L26" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M26" t="n">
-        <v>521.6025038279637</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N26" t="n">
-        <v>625.4051254607205</v>
+        <v>586.1585843851439</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254042</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P26" t="n">
         <v>706.3775386004011</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275573</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389736</v>
@@ -36773,7 +36773,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K29" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646394</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207962</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743845</v>
+        <v>586.1585843851439</v>
       </c>
       <c r="O29" t="n">
-        <v>751.4877009160651</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289185</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q29" t="n">
         <v>240.143345477105</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275573</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389736</v>
@@ -37010,7 +37010,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L32" t="n">
-        <v>440.025518414189</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279637</v>
+        <v>946.2311529904254</v>
       </c>
       <c r="N32" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P32" t="n">
-        <v>683.8781620579019</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275573</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389736</v>
@@ -37247,7 +37247,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339473</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>440.025518414189</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207962</v>
+        <v>907.0234153030386</v>
       </c>
       <c r="N35" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O35" t="n">
-        <v>491.4349103626588</v>
+        <v>491.4349103626587</v>
       </c>
       <c r="P35" t="n">
-        <v>615.1648098278151</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106824</v>
+        <v>227.0997147594846</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389736</v>
@@ -37484,7 +37484,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811665</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K38" t="n">
-        <v>324.6451466339473</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L38" t="n">
-        <v>440.025518414189</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M38" t="n">
-        <v>946.2311529904249</v>
+        <v>946.2311529904254</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743845</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P38" t="n">
         <v>706.3775386004011</v>
@@ -37566,7 +37566,7 @@
         <v>240.143345477105</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560021</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511937</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275573</v>
+        <v>303.5588430275572</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389736</v>
@@ -37721,7 +37721,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K41" t="n">
-        <v>648.790559205112</v>
+        <v>331.6125812459588</v>
       </c>
       <c r="L41" t="n">
-        <v>530.7276537125092</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279637</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N41" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P41" t="n">
         <v>706.3775386004011</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275573</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389736</v>
@@ -37958,7 +37958,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532403</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K44" t="n">
-        <v>648.790559205112</v>
+        <v>324.6451466339471</v>
       </c>
       <c r="L44" t="n">
-        <v>530.7276537125092</v>
+        <v>736.9393422553014</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279637</v>
+        <v>971.116037320796</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254042</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004011</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585827</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511937</v>
+        <v>89.63772240239248</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709663</v>
+        <v>232.1494122709662</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264661</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901375</v>
+        <v>438.4230857901372</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859783</v>
+        <v>464.5810270859781</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383722</v>
+        <v>402.5566389383721</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275573</v>
+        <v>378.1609409763598</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106824</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806883</v>
+        <v>42.4504971280688</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715709</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627856</v>
+        <v>313.1797721627855</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332408</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389736</v>
@@ -38195,7 +38195,7 @@
         <v>229.6061850928531</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332492</v>
+        <v>74.68956239332489</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
